--- a/IBM.xlsx
+++ b/IBM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299907D4-62D6-46C7-A932-D1FD0E7ADDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE96E7D-B1E2-4F22-AC4E-D489BB2E9597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19500" yWindow="1215" windowWidth="30840" windowHeight="19155" xr2:uid="{7D8BE515-B55F-4662-8375-1B3B93E8AA4F}"/>
+    <workbookView xWindow="-51315" yWindow="405" windowWidth="29955" windowHeight="19995" xr2:uid="{7D8BE515-B55F-4662-8375-1B3B93E8AA4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
   <si>
     <t>Price</t>
   </si>
@@ -187,12 +187,84 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Financing Receivables</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>Prepaids</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>Pension</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Compensation</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>Lease</t>
+  </si>
+  <si>
+    <t>Accrued</t>
+  </si>
+  <si>
+    <t>RPO</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -236,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -244,10 +316,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -262,13 +330,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{9497C0C5-FF39-478D-B445-E4B18F4AF922}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -284,16 +357,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>32845</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>52552</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>32845</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>32845</xdr:rowOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>141486</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -308,8 +381,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7074776" y="52552"/>
-          <a:ext cx="0" cy="7534603"/>
+          <a:off x="10092710" y="0"/>
+          <a:ext cx="0" cy="9168255"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -334,15 +407,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>7326</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>65942</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>7326</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>43962</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -386,9 +459,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -426,7 +499,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -532,7 +605,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -674,7 +747,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -685,7 +758,7 @@
   <dimension ref="L2:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -695,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>122.02</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="12:14" x14ac:dyDescent="0.2">
@@ -703,10 +776,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>908.04541400000005</v>
+        <v>920</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="12:14" x14ac:dyDescent="0.2">
@@ -715,7 +788,7 @@
       </c>
       <c r="M4" s="2">
         <f>M2*M3</f>
-        <v>110799.70141628</v>
+        <v>203320</v>
       </c>
     </row>
     <row r="5" spans="12:14" x14ac:dyDescent="0.2">
@@ -723,11 +796,11 @@
         <v>3</v>
       </c>
       <c r="M5" s="2">
-        <f>9337+198+8057</f>
-        <v>17592</v>
+        <f>12210+2268+1481+1840</f>
+        <v>17799</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="12:14" x14ac:dyDescent="0.2">
@@ -735,10 +808,11 @@
         <v>4</v>
       </c>
       <c r="M6" s="2">
-        <v>53826</v>
+        <f>3602+52929</f>
+        <v>56531</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="12:14" x14ac:dyDescent="0.2">
@@ -747,7 +821,7 @@
       </c>
       <c r="M7" s="2">
         <f>M4-M5+M6</f>
-        <v>147033.70141628</v>
+        <v>242052</v>
       </c>
     </row>
   </sheetData>
@@ -757,28 +831,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FB68D1-0434-4598-89CF-70D15ABD98C6}">
-  <dimension ref="A1:AQ38"/>
+  <dimension ref="A1:AX73"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AF4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK16" sqref="AK16"/>
+      <selection pane="bottomRight" activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="11" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -815,842 +889,1384 @@
       <c r="N2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q2">
+      <c r="O2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="X2">
         <v>2000</v>
       </c>
-      <c r="R2">
-        <f>Q2+1</f>
+      <c r="Y2">
+        <f>X2+1</f>
         <v>2001</v>
       </c>
-      <c r="S2">
-        <f>R2+1</f>
+      <c r="Z2">
+        <f>Y2+1</f>
         <v>2002</v>
       </c>
-      <c r="T2">
-        <f t="shared" ref="T2:AQ2" si="0">S2+1</f>
+      <c r="AA2">
+        <f t="shared" ref="AA2:AX2" si="0">Z2+1</f>
         <v>2003</v>
       </c>
-      <c r="U2">
+      <c r="AB2">
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
-      <c r="V2">
+      <c r="AC2">
         <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="W2">
+      <c r="AD2">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="X2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="Y2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="Z2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="AA2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="AB2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="AC2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="AD2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="AE2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="AF2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="AG2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="AH2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="AI2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="AJ2">
+      <c r="AQ2">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="AK2">
+      <c r="AR2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="AL2">
+      <c r="AS2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AM2">
+      <c r="AT2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AN2">
+      <c r="AU2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AO2">
+      <c r="AV2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AP2">
+      <c r="AW2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AQ2">
+      <c r="AX2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="9">
-        <v>4080</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9">
-        <v>4179</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="9">
-        <v>1692</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9">
-        <v>1742</v>
-      </c>
+    <row r="3" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5">
+        <v>56000</v>
+      </c>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11">
+        <v>4080</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11">
+        <v>4179</v>
+      </c>
+      <c r="L5" s="11">
+        <v>4350</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11">
+        <v>4575</v>
+      </c>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11">
+        <v>1692</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11">
+        <v>1742</v>
+      </c>
+      <c r="L6" s="11">
+        <v>1943</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11">
+        <v>2164</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+    </row>
+    <row r="7" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="7">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11">
         <v>2255</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7">
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11">
         <v>2283</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="L7" s="11">
+        <v>2295</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11">
+        <v>2360</v>
+      </c>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+    </row>
+    <row r="8" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="7">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
         <v>1619</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5">
         <v>1736</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="L8" s="5">
+        <v>1991</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5">
+        <v>1902</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+    </row>
+    <row r="9" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="7">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
         <v>955</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7">
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5">
         <v>943</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="L9" s="5">
+        <v>941</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5">
+        <v>917</v>
+      </c>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+    </row>
+    <row r="10" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="7">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
         <v>1700</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5">
         <v>1709</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="L10" s="5">
+        <v>2260</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5">
+        <v>2360</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+    </row>
+    <row r="11" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="7">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
         <v>1519</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7">
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5">
         <v>1389</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="L11" s="5">
+        <v>1358</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5">
+        <v>1285</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="7">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5">
         <v>154</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5">
         <v>196</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="L12" s="5">
+        <v>185</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5">
+        <v>169</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="7">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5">
         <v>224</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5">
         <v>75</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+      <c r="L13" s="5">
+        <v>152</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5">
         <v>7703</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5">
         <v>7524</v>
       </c>
-      <c r="AK13" s="2">
+      <c r="L15" s="5">
+        <v>7553</v>
+      </c>
+      <c r="P15" s="2">
+        <v>7405</v>
+      </c>
+      <c r="AR15" s="2">
         <v>27626</v>
       </c>
-      <c r="AL13" s="2">
+      <c r="AS15" s="2">
         <v>29225</v>
       </c>
-      <c r="AM13" s="2">
+      <c r="AT15" s="2">
         <v>30206</v>
       </c>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+    <row r="16" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
         <v>6339</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7">
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5">
         <v>6532</v>
       </c>
-      <c r="AK14" s="2">
+      <c r="L16" s="5">
+        <v>7739</v>
+      </c>
+      <c r="P16" s="2">
+        <v>8195</v>
+      </c>
+      <c r="AR16" s="2">
         <v>26569</v>
       </c>
-      <c r="AL14" s="2">
+      <c r="AS16" s="2">
         <v>27346</v>
       </c>
-      <c r="AM14" s="2">
+      <c r="AT16" s="2">
         <v>29673</v>
       </c>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+    <row r="17" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5">
         <v>155</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7">
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5">
         <v>196</v>
       </c>
-      <c r="AK15" s="2">
+      <c r="L17" s="5">
+        <v>183</v>
+      </c>
+      <c r="P17" s="2">
+        <v>169</v>
+      </c>
+      <c r="AR17" s="2">
         <v>984</v>
       </c>
-      <c r="AL15" s="2">
+      <c r="AS17" s="2">
         <v>780</v>
       </c>
-      <c r="AM15" s="2">
+      <c r="AT17" s="2">
         <v>651</v>
       </c>
     </row>
-    <row r="16" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="8" t="s">
+    <row r="18" spans="2:46" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9">
-        <f>SUM(G13:G15)</f>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7">
+        <f>SUM(G15:G17)</f>
         <v>14197</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9">
-        <f>SUM(K13:K15)</f>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7">
+        <f>SUM(K15:K17)</f>
         <v>14252</v>
       </c>
-      <c r="AK16" s="8">
-        <f>SUM(AK13:AK15)</f>
+      <c r="L18" s="7">
+        <f>SUM(L15:L17)</f>
+        <v>15475</v>
+      </c>
+      <c r="P18" s="6">
+        <f>SUM(P15:P17)</f>
+        <v>15769</v>
+      </c>
+      <c r="AR18" s="6">
+        <f>SUM(AR15:AR17)</f>
         <v>55179</v>
       </c>
-      <c r="AL16" s="8">
-        <f>SUM(AL13:AL15)</f>
+      <c r="AS18" s="6">
+        <f>SUM(AS15:AS17)</f>
         <v>57351</v>
       </c>
-      <c r="AM16" s="8">
-        <f>SUM(AM13:AM15)</f>
+      <c r="AT18" s="6">
+        <f>SUM(AT15:AT17)</f>
         <v>60530</v>
       </c>
     </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
+    <row r="19" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G19" s="5">
         <v>5349</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K19" s="5">
         <v>5310</v>
       </c>
-      <c r="AK17" s="2">
+      <c r="L19" s="5">
+        <v>5294</v>
+      </c>
+      <c r="P19" s="2">
+        <v>5126</v>
+      </c>
+      <c r="AR19" s="2">
         <v>17689</v>
       </c>
-      <c r="AL17" s="2">
+      <c r="AS19" s="2">
         <v>19147</v>
       </c>
-      <c r="AM17" s="2">
+      <c r="AT19" s="2">
         <v>21062</v>
       </c>
     </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+    <row r="20" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G20" s="5">
         <v>1415</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K20" s="5">
         <v>1322</v>
       </c>
-      <c r="AK18" s="2">
+      <c r="L20" s="5">
+        <v>1587</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1607</v>
+      </c>
+      <c r="AR20" s="2">
         <v>6048</v>
       </c>
-      <c r="AL18" s="2">
+      <c r="AS20" s="2">
         <v>6184</v>
       </c>
-      <c r="AM18" s="2">
+      <c r="AT20" s="2">
         <v>6374</v>
       </c>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
+    <row r="21" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G21" s="5">
         <v>98</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K21" s="5">
         <v>110</v>
       </c>
-      <c r="AK19" s="2">
+      <c r="L21" s="5">
+        <v>93</v>
+      </c>
+      <c r="P21" s="2">
+        <v>86</v>
+      </c>
+      <c r="AR21" s="2">
         <v>577</v>
       </c>
-      <c r="AL19" s="2">
+      <c r="AS21" s="2">
         <v>534</v>
       </c>
-      <c r="AM19" s="2">
+      <c r="AT21" s="2">
         <v>406</v>
       </c>
     </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
+    <row r="22" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="7">
-        <f>SUM(G17:G19)</f>
+      <c r="G22" s="5">
+        <f>SUM(G19:G21)</f>
         <v>6862</v>
       </c>
-      <c r="K20" s="7">
-        <f>SUM(K17:K19)</f>
+      <c r="K22" s="5">
+        <f>SUM(K19:K21)</f>
         <v>6742</v>
       </c>
-      <c r="AK20" s="2">
-        <f>SUM(AK17:AK19)</f>
+      <c r="L22" s="5">
+        <f>SUM(L19:L21)</f>
+        <v>6974</v>
+      </c>
+      <c r="P22" s="5">
+        <f>SUM(P19:P21)</f>
+        <v>6819</v>
+      </c>
+      <c r="AR22" s="2">
+        <f>SUM(AR19:AR21)</f>
         <v>24314</v>
       </c>
-      <c r="AL20" s="2">
-        <f>SUM(AL17:AL19)</f>
+      <c r="AS22" s="2">
+        <f>SUM(AS19:AS21)</f>
         <v>25865</v>
       </c>
-      <c r="AM20" s="2">
-        <f>SUM(AM17:AM19)</f>
+      <c r="AT22" s="2">
+        <f>SUM(AT19:AT21)</f>
         <v>27842</v>
       </c>
     </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
+    <row r="23" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="7">
-        <f>G16-G20</f>
+      <c r="G23" s="5">
+        <f>G18-G22</f>
         <v>7335</v>
       </c>
-      <c r="K21" s="7">
-        <f>K16-K20</f>
+      <c r="K23" s="5">
+        <f>K18-K22</f>
         <v>7510</v>
       </c>
-      <c r="AK21" s="2">
-        <f>AK16-AK20</f>
+      <c r="L23" s="5">
+        <f>L18-L22</f>
+        <v>8501</v>
+      </c>
+      <c r="P23" s="5">
+        <f>P18-P22</f>
+        <v>8950</v>
+      </c>
+      <c r="AR23" s="2">
+        <f>AR18-AR22</f>
         <v>30865</v>
       </c>
-      <c r="AL21" s="2">
-        <f>AL16-AL20</f>
+      <c r="AS23" s="2">
+        <f>AS18-AS22</f>
         <v>31486</v>
       </c>
-      <c r="AM21" s="2">
-        <f>AM16-AM20</f>
+      <c r="AT23" s="2">
+        <f>AT18-AT22</f>
         <v>32688</v>
       </c>
     </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
+    <row r="24" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G24" s="5">
         <v>4597</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K24" s="5">
         <v>4853</v>
       </c>
-      <c r="AK22" s="2">
+      <c r="L24" s="5">
+        <v>4900</v>
+      </c>
+      <c r="P24" s="2">
+        <v>4938</v>
+      </c>
+      <c r="AR24" s="2">
         <v>20561</v>
       </c>
-      <c r="AL22" s="2">
+      <c r="AS24" s="2">
         <v>18745</v>
       </c>
-      <c r="AM22" s="2">
+      <c r="AT24" s="2">
         <v>18609</v>
       </c>
     </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
+    <row r="25" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G25" s="5">
         <v>1679</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K25" s="5">
         <v>1655</v>
       </c>
-      <c r="AK23" s="2">
+      <c r="L25" s="5">
+        <v>1687</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1840</v>
+      </c>
+      <c r="AR25" s="2">
         <v>6262</v>
       </c>
-      <c r="AL23" s="2">
+      <c r="AS25" s="2">
         <v>6488</v>
       </c>
-      <c r="AM23" s="2">
+      <c r="AT25" s="2">
         <v>6567</v>
       </c>
     </row>
-    <row r="24" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
+    <row r="26" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="7">
-        <f>G22+G23</f>
+      <c r="G26" s="5">
+        <f>G24+G25</f>
         <v>6276</v>
       </c>
-      <c r="K24" s="7">
-        <f>K22+K23</f>
+      <c r="K26" s="5">
+        <f>K24+K25</f>
         <v>6508</v>
       </c>
-      <c r="AK24" s="2">
-        <f>AK22+AK23</f>
+      <c r="L26" s="5">
+        <f>L24+L25</f>
+        <v>6587</v>
+      </c>
+      <c r="P26" s="5">
+        <f>P24+P25</f>
+        <v>6778</v>
+      </c>
+      <c r="AR26" s="2">
+        <f>AR24+AR25</f>
         <v>26823</v>
       </c>
-      <c r="AL24" s="2">
-        <f>AL22+AL23</f>
+      <c r="AS26" s="2">
+        <f>AS24+AS25</f>
         <v>25233</v>
       </c>
-      <c r="AM24" s="2">
-        <f>AM22+AM23</f>
+      <c r="AT26" s="2">
+        <f>AT24+AT25</f>
         <v>25176</v>
       </c>
     </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
+    <row r="27" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="7">
-        <f>G21-G24</f>
+      <c r="G27" s="5">
+        <f>G23-G26</f>
         <v>1059</v>
       </c>
-      <c r="K25" s="7">
-        <f>K21-K24</f>
+      <c r="K27" s="5">
+        <f>K23-K26</f>
         <v>1002</v>
       </c>
-      <c r="AK25" s="2">
-        <f>AK21-AK24</f>
+      <c r="L27" s="5">
+        <f>L23-L26</f>
+        <v>1914</v>
+      </c>
+      <c r="P27" s="5">
+        <f>P23-P26</f>
+        <v>2172</v>
+      </c>
+      <c r="AR27" s="2">
+        <f>AR23-AR26</f>
         <v>4042</v>
       </c>
-      <c r="AL25" s="2">
-        <f>AL21-AL24</f>
+      <c r="AS27" s="2">
+        <f>AS23-AS26</f>
         <v>6253</v>
       </c>
-      <c r="AM25" s="2">
-        <f>AM21-AM24</f>
+      <c r="AT27" s="2">
+        <f>AT23-AT26</f>
         <v>7512</v>
       </c>
     </row>
-    <row r="26" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
+    <row r="28" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G28" s="3">
         <f>-246-311+121</f>
         <v>-436</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K28" s="3">
         <f>245-367+180</f>
         <v>58</v>
       </c>
-      <c r="AK26">
+      <c r="L28">
+        <f>248+261-423</f>
+        <v>86</v>
+      </c>
+      <c r="P28">
+        <f>241+233-427</f>
+        <v>47</v>
+      </c>
+      <c r="AR28">
         <f>620-1288</f>
         <v>-668</v>
       </c>
-      <c r="AL26">
+      <c r="AS28">
         <f>612-1155</f>
         <v>-543</v>
       </c>
-      <c r="AM26">
+      <c r="AT28">
         <f>663-1216</f>
         <v>-553</v>
       </c>
     </row>
-    <row r="27" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
+    <row r="29" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="7">
-        <f>G25+G26</f>
+      <c r="G29" s="5">
+        <f>G27+G28</f>
         <v>623</v>
       </c>
-      <c r="K27" s="7">
-        <f>K25+K26</f>
+      <c r="K29" s="5">
+        <f>K27+K28</f>
         <v>1060</v>
       </c>
-      <c r="AK27" s="2">
-        <f>AK25+AK26</f>
+      <c r="L29" s="5">
+        <f>L27+L28</f>
+        <v>2000</v>
+      </c>
+      <c r="P29" s="5">
+        <f>P27+P28</f>
+        <v>2219</v>
+      </c>
+      <c r="AR29" s="2">
+        <f>AR27+AR28</f>
         <v>3374</v>
       </c>
-      <c r="AL27" s="2">
-        <f>AL25+AL26</f>
+      <c r="AS29" s="2">
+        <f>AS27+AS28</f>
         <v>5710</v>
       </c>
-      <c r="AM27" s="2">
-        <f>AM25+AM26</f>
+      <c r="AT29" s="2">
+        <f>AT27+AT28</f>
         <v>6959</v>
       </c>
     </row>
-    <row r="28" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
+    <row r="30" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G30" s="3">
         <f>-39-71</f>
         <v>-110</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K30" s="3">
         <f>124+7</f>
         <v>131</v>
       </c>
-      <c r="AK28">
+      <c r="L30">
+        <v>419</v>
+      </c>
+      <c r="P30">
+        <v>389</v>
+      </c>
+      <c r="AR30">
         <v>0</v>
       </c>
-      <c r="AL28">
+      <c r="AS30">
         <v>124</v>
       </c>
-      <c r="AM28">
+      <c r="AT30">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
+    <row r="31" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="7">
-        <f>G27-G28</f>
+      <c r="G31" s="5">
+        <f>G29-G30</f>
         <v>733</v>
       </c>
-      <c r="K29" s="7">
-        <f>K27-K28</f>
+      <c r="K31" s="5">
+        <f>K29-K30</f>
         <v>929</v>
       </c>
-      <c r="AK29" s="2">
-        <f>AK27-AK28</f>
+      <c r="L31" s="2">
+        <f>+L29-L30</f>
+        <v>1581</v>
+      </c>
+      <c r="P31" s="2">
+        <f>+P29-P30</f>
+        <v>1830</v>
+      </c>
+      <c r="AR31" s="2">
+        <f>AR29-AR30</f>
         <v>3374</v>
       </c>
-      <c r="AL29" s="2">
-        <f>AL27-AL28</f>
+      <c r="AS31" s="2">
+        <f>AS29-AS30</f>
         <v>5586</v>
       </c>
-      <c r="AM29" s="2">
-        <f>AM27-AM28</f>
+      <c r="AT31" s="2">
+        <f>AT29-AT30</f>
         <v>6959</v>
       </c>
     </row>
-    <row r="30" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
+    <row r="32" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G30" s="10">
-        <f>G29/G31</f>
+      <c r="G32" s="8">
+        <f>G31/G33</f>
         <v>0.81507839430668305</v>
       </c>
-      <c r="K30" s="10">
-        <f>K29/K31</f>
+      <c r="K32" s="8">
+        <f>K31/K33</f>
         <v>1.0236914600550964</v>
       </c>
-      <c r="AK30" s="1">
-        <f>AK29/AK31</f>
+      <c r="L32" s="8">
+        <f>L31/L33</f>
+        <v>1.7375535773161885</v>
+      </c>
+      <c r="P32" s="8">
+        <f>P31/P33</f>
+        <v>1.9884820167336739</v>
+      </c>
+      <c r="AR32" s="1">
+        <f>AR31/AR33</f>
         <v>3.7895294873465208</v>
       </c>
-      <c r="AL30" s="1">
-        <f>AL29/AL31</f>
+      <c r="AS32" s="1">
+        <f>AS31/AS33</f>
         <v>6.2344445808546967</v>
       </c>
-      <c r="AM30" s="1">
-        <f>AM29/AM31</f>
+      <c r="AT32" s="1">
+        <f>AT31/AT33</f>
         <v>7.7094023911444349</v>
       </c>
     </row>
-    <row r="31" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
+    <row r="33" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G33" s="5">
         <v>899.3</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7">
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5">
         <v>907.5</v>
       </c>
-      <c r="AK31" s="2">
+      <c r="L33" s="5">
+        <v>909.9</v>
+      </c>
+      <c r="P33" s="5">
+        <v>920.3</v>
+      </c>
+      <c r="AR33" s="2">
         <v>890.34799999999996</v>
       </c>
-      <c r="AL31" s="2">
+      <c r="AS33" s="2">
         <v>895.99</v>
       </c>
-      <c r="AM31" s="2">
+      <c r="AT33" s="2">
         <v>902.66399999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
+    <row r="35" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K33" s="11">
-        <f>K16/G16-1</f>
+      <c r="K35" s="9">
+        <f>K18/G18-1</f>
         <v>3.8740578995561936E-3</v>
       </c>
-      <c r="AL33" s="12">
-        <f>AL16/AK16-1</f>
+      <c r="L35" s="9" t="e">
+        <f>L18/H18-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P35" s="9">
+        <f>P18/L18-1</f>
+        <v>1.8998384491114795E-2</v>
+      </c>
+      <c r="AS35" s="10">
+        <f>AS18/AR18-1</f>
         <v>3.9362801065622843E-2</v>
       </c>
-      <c r="AM33" s="12">
-        <f>AM16/AL16-1</f>
+      <c r="AT35" s="10">
+        <f>AT18/AS18-1</f>
         <v>5.5430594061132377E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
+    <row r="36" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="11">
-        <f>G21/G16</f>
+      <c r="G36" s="9">
+        <f>G23/G18</f>
         <v>0.51665844896809188</v>
       </c>
-      <c r="K34" s="11">
-        <f>K21/K16</f>
+      <c r="K36" s="9">
+        <f>K23/K18</f>
         <v>0.52694358686500142</v>
       </c>
-      <c r="AK34" s="12">
-        <f>AK21/AK16</f>
+      <c r="L36" s="9">
+        <f>L23/L18</f>
+        <v>0.54933764135702745</v>
+      </c>
+      <c r="P36" s="9">
+        <f>P23/P18</f>
+        <v>0.56756928150168051</v>
+      </c>
+      <c r="AR36" s="10">
+        <f>AR23/AR18</f>
         <v>0.5593613512386959</v>
       </c>
-      <c r="AL34" s="12">
-        <f>AL21/AL16</f>
+      <c r="AS36" s="10">
+        <f>AS23/AS18</f>
         <v>0.54900524838276576</v>
       </c>
-      <c r="AM34" s="12">
-        <f>AM21/AM16</f>
+      <c r="AT36" s="10">
+        <f>AT23/AT18</f>
         <v>0.54002973732033699</v>
       </c>
     </row>
-    <row r="36" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
+    <row r="38" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" s="2">
+        <f>+P39-P53</f>
+        <v>-38732</v>
+      </c>
+    </row>
+    <row r="39" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P39" s="2">
+        <f>12210+2268+1481+1840</f>
+        <v>17799</v>
+      </c>
+    </row>
+    <row r="40" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P40" s="2">
+        <f>5769+757</f>
+        <v>6526</v>
+      </c>
+    </row>
+    <row r="41" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P41" s="2">
+        <f>5075+723+5483</f>
+        <v>11281</v>
+      </c>
+    </row>
+    <row r="42" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P42" s="2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="43" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P43" s="2">
+        <f>997+820</f>
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="44" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P44" s="2">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="45" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" s="2">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="46" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" s="2">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="47" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P47" s="2">
+        <v>7630</v>
+      </c>
+    </row>
+    <row r="48" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P48" s="2">
+        <v>6378</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" s="2">
+        <f>59416+10251</f>
+        <v>69667</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P50" s="2">
+        <f>SUM(P39:P49)</f>
+        <v>133846</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B51" s="2"/>
+      <c r="P51" s="2"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P52" s="2">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P53" s="2">
+        <f>3602+52929</f>
+        <v>56531</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P54" s="2">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P55" s="2">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P56" s="2">
+        <f>13643+3489</f>
+        <v>17132</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P57" s="2">
+        <f>762+2546</f>
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P58" s="2">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P59" s="2">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P60" s="2">
+        <v>10932</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P61" s="2">
+        <v>24103</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P62" s="2">
+        <f>SUM(P52:P61)</f>
+        <v>133848</v>
+      </c>
+    </row>
+    <row r="71" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G71" s="5">
         <v>3248</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K71" s="5">
         <v>3774</v>
       </c>
-      <c r="AK36" s="2">
+      <c r="AR71" s="2">
         <v>18197</v>
       </c>
-      <c r="AL36" s="2">
+      <c r="AS71" s="2">
         <v>12796</v>
       </c>
-      <c r="AM36" s="2">
+      <c r="AT71" s="2">
         <v>10435</v>
       </c>
     </row>
-    <row r="37" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
+    <row r="72" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G72" s="5">
         <v>281</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K72" s="5">
         <v>300</v>
       </c>
-      <c r="AK37" s="2">
+      <c r="AR72" s="2">
         <v>2618</v>
       </c>
-      <c r="AL37" s="2">
+      <c r="AS72" s="2">
         <v>2062</v>
       </c>
-      <c r="AM37" s="2">
+      <c r="AT72" s="2">
         <v>1346</v>
       </c>
     </row>
-    <row r="38" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
+    <row r="73" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="7">
-        <f>G36-G37</f>
+      <c r="G73" s="5">
+        <f>G71-G72</f>
         <v>2967</v>
       </c>
-      <c r="K38" s="7">
-        <f>K36-K37</f>
+      <c r="K73" s="5">
+        <f>K71-K72</f>
         <v>3474</v>
       </c>
-      <c r="AK38" s="2">
-        <f>AK36-AK37</f>
+      <c r="AR73" s="2">
+        <f>AR71-AR72</f>
         <v>15579</v>
       </c>
-      <c r="AL38" s="2">
-        <f>AL36-AL37</f>
+      <c r="AS73" s="2">
+        <f>AS71-AS72</f>
         <v>10734</v>
       </c>
-      <c r="AM38" s="2">
-        <f>AM36-AM37</f>
+      <c r="AT73" s="2">
+        <f>AT71-AT72</f>
         <v>9089</v>
       </c>
     </row>

--- a/IBM.xlsx
+++ b/IBM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE96E7D-B1E2-4F22-AC4E-D489BB2E9597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF27522-BE00-4C2A-BD08-1B212FCDB928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51315" yWindow="405" windowWidth="29955" windowHeight="19995" xr2:uid="{7D8BE515-B55F-4662-8375-1B3B93E8AA4F}"/>
+    <workbookView xWindow="-50685" yWindow="915" windowWidth="25350" windowHeight="15525" activeTab="1" xr2:uid="{7D8BE515-B55F-4662-8375-1B3B93E8AA4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
   <si>
     <t>Price</t>
   </si>
@@ -259,6 +259,18 @@
   </si>
   <si>
     <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Consulting</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>Financing/Other</t>
   </si>
 </sst>
 </file>
@@ -308,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -330,9 +342,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -357,15 +366,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>32845</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>18192</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>32845</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>18192</xdr:colOff>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>141486</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -381,8 +390,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10092710" y="0"/>
-          <a:ext cx="0" cy="9168255"/>
+          <a:off x="10957288" y="0"/>
+          <a:ext cx="0" cy="14809986"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -415,7 +424,7 @@
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>7326</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>43962</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -757,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E657D095-2AEF-4639-8AAD-34B652349C66}">
   <dimension ref="L2:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -768,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="12:14" x14ac:dyDescent="0.2">
@@ -788,7 +797,7 @@
       </c>
       <c r="M4" s="2">
         <f>M2*M3</f>
-        <v>203320</v>
+        <v>209760</v>
       </c>
     </row>
     <row r="5" spans="12:14" x14ac:dyDescent="0.2">
@@ -821,7 +830,7 @@
       </c>
       <c r="M7" s="2">
         <f>M4-M5+M6</f>
-        <v>242052</v>
+        <v>248492</v>
       </c>
     </row>
   </sheetData>
@@ -831,13 +840,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FB68D1-0434-4598-89CF-70D15ABD98C6}">
-  <dimension ref="A1:AX73"/>
+  <dimension ref="A1:AX78"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P53" sqref="P53"/>
+      <selection pane="bottomRight" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1056,24 +1065,24 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5">
         <v>4080</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5">
         <v>4179</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="5">
         <v>4350</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11">
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5">
         <v>4575</v>
       </c>
       <c r="Q5" s="5"/>
@@ -1088,24 +1097,24 @@
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
         <v>1692</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5">
         <v>1742</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="5">
         <v>1943</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11">
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5">
         <v>2164</v>
       </c>
       <c r="Q6" s="5"/>
@@ -1120,24 +1129,24 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
         <v>2255</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5">
         <v>2283</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="5">
         <v>2295</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11">
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5">
         <v>2360</v>
       </c>
       <c r="Q7" s="5"/>
@@ -1449,824 +1458,1014 @@
         <v>651</v>
       </c>
     </row>
-    <row r="18" spans="2:46" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="2">
+        <v>5947</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>6524</v>
+      </c>
+    </row>
+    <row r="20" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="2">
+        <v>5178</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>5152</v>
+      </c>
+    </row>
+    <row r="21" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="2">
+        <v>3272</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="22" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="2">
+        <f>186+170</f>
+        <v>356</v>
+      </c>
+      <c r="Q22" s="2">
+        <f>181+68</f>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="2:46" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7">
         <f>SUM(G15:G17)</f>
         <v>14197</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7">
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7">
         <f>SUM(K15:K17)</f>
         <v>14252</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L23" s="7">
         <f>SUM(L15:L17)</f>
         <v>15475</v>
       </c>
-      <c r="P18" s="6">
+      <c r="M23" s="6">
+        <f>SUM(M19:M22)</f>
+        <v>14753</v>
+      </c>
+      <c r="P23" s="6">
         <f>SUM(P15:P17)</f>
         <v>15769</v>
       </c>
-      <c r="AR18" s="6">
+      <c r="Q23" s="6">
+        <f>SUM(Q19:Q22)</f>
+        <v>14967</v>
+      </c>
+      <c r="AR23" s="6">
         <f>SUM(AR15:AR17)</f>
         <v>55179</v>
       </c>
-      <c r="AS18" s="6">
+      <c r="AS23" s="6">
         <f>SUM(AS15:AS17)</f>
         <v>57351</v>
       </c>
-      <c r="AT18" s="6">
+      <c r="AT23" s="6">
         <f>SUM(AT15:AT17)</f>
         <v>60530</v>
       </c>
     </row>
-    <row r="19" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="5">
-        <v>5349</v>
-      </c>
-      <c r="K19" s="5">
-        <v>5310</v>
-      </c>
-      <c r="L19" s="5">
-        <v>5294</v>
-      </c>
-      <c r="P19" s="2">
-        <v>5126</v>
-      </c>
-      <c r="AR19" s="2">
-        <v>17689</v>
-      </c>
-      <c r="AS19" s="2">
-        <v>19147</v>
-      </c>
-      <c r="AT19" s="2">
-        <v>21062</v>
-      </c>
-    </row>
-    <row r="20" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="5">
-        <v>1415</v>
-      </c>
-      <c r="K20" s="5">
-        <v>1322</v>
-      </c>
-      <c r="L20" s="5">
-        <v>1587</v>
-      </c>
-      <c r="P20" s="2">
-        <v>1607</v>
-      </c>
-      <c r="AR20" s="2">
-        <v>6048</v>
-      </c>
-      <c r="AS20" s="2">
-        <v>6184</v>
-      </c>
-      <c r="AT20" s="2">
-        <v>6374</v>
-      </c>
-    </row>
-    <row r="21" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="5">
-        <v>98</v>
-      </c>
-      <c r="K21" s="5">
-        <v>110</v>
-      </c>
-      <c r="L21" s="5">
-        <v>93</v>
-      </c>
-      <c r="P21" s="2">
-        <v>86</v>
-      </c>
-      <c r="AR21" s="2">
-        <v>577</v>
-      </c>
-      <c r="AS21" s="2">
-        <v>534</v>
-      </c>
-      <c r="AT21" s="2">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="22" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="5">
-        <f>SUM(G19:G21)</f>
-        <v>6862</v>
-      </c>
-      <c r="K22" s="5">
-        <f>SUM(K19:K21)</f>
-        <v>6742</v>
-      </c>
-      <c r="L22" s="5">
-        <f>SUM(L19:L21)</f>
-        <v>6974</v>
-      </c>
-      <c r="P22" s="5">
-        <f>SUM(P19:P21)</f>
-        <v>6819</v>
-      </c>
-      <c r="AR22" s="2">
-        <f>SUM(AR19:AR21)</f>
-        <v>24314</v>
-      </c>
-      <c r="AS22" s="2">
-        <f>SUM(AS19:AS21)</f>
-        <v>25865</v>
-      </c>
-      <c r="AT22" s="2">
-        <f>SUM(AT19:AT21)</f>
-        <v>27842</v>
-      </c>
-    </row>
-    <row r="23" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="5">
-        <f>G18-G22</f>
-        <v>7335</v>
-      </c>
-      <c r="K23" s="5">
-        <f>K18-K22</f>
-        <v>7510</v>
-      </c>
-      <c r="L23" s="5">
-        <f>L18-L22</f>
-        <v>8501</v>
-      </c>
-      <c r="P23" s="5">
-        <f>P18-P22</f>
-        <v>8950</v>
-      </c>
-      <c r="AR23" s="2">
-        <f>AR18-AR22</f>
-        <v>30865</v>
-      </c>
-      <c r="AS23" s="2">
-        <f>AS18-AS22</f>
-        <v>31486</v>
-      </c>
-      <c r="AT23" s="2">
-        <f>AT18-AT22</f>
-        <v>32688</v>
-      </c>
-    </row>
     <row r="24" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G24" s="5">
-        <v>4597</v>
+        <v>5349</v>
       </c>
       <c r="K24" s="5">
-        <v>4853</v>
+        <v>5310</v>
       </c>
       <c r="L24" s="5">
-        <v>4900</v>
+        <v>5294</v>
       </c>
       <c r="P24" s="2">
-        <v>4938</v>
+        <v>5126</v>
       </c>
       <c r="AR24" s="2">
-        <v>20561</v>
+        <v>17689</v>
       </c>
       <c r="AS24" s="2">
-        <v>18745</v>
+        <v>19147</v>
       </c>
       <c r="AT24" s="2">
-        <v>18609</v>
+        <v>21062</v>
       </c>
     </row>
     <row r="25" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G25" s="5">
-        <v>1679</v>
+        <v>1415</v>
       </c>
       <c r="K25" s="5">
-        <v>1655</v>
+        <v>1322</v>
       </c>
       <c r="L25" s="5">
-        <v>1687</v>
+        <v>1587</v>
       </c>
       <c r="P25" s="2">
-        <v>1840</v>
+        <v>1607</v>
       </c>
       <c r="AR25" s="2">
-        <v>6262</v>
+        <v>6048</v>
       </c>
       <c r="AS25" s="2">
-        <v>6488</v>
+        <v>6184</v>
       </c>
       <c r="AT25" s="2">
-        <v>6567</v>
+        <v>6374</v>
       </c>
     </row>
     <row r="26" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G26" s="5">
-        <f>G24+G25</f>
-        <v>6276</v>
+        <v>98</v>
       </c>
       <c r="K26" s="5">
-        <f>K24+K25</f>
-        <v>6508</v>
+        <v>110</v>
       </c>
       <c r="L26" s="5">
-        <f>L24+L25</f>
-        <v>6587</v>
-      </c>
-      <c r="P26" s="5">
-        <f>P24+P25</f>
-        <v>6778</v>
+        <v>93</v>
+      </c>
+      <c r="P26" s="2">
+        <v>86</v>
       </c>
       <c r="AR26" s="2">
-        <f>AR24+AR25</f>
-        <v>26823</v>
+        <v>577</v>
       </c>
       <c r="AS26" s="2">
-        <f>AS24+AS25</f>
-        <v>25233</v>
+        <v>534</v>
       </c>
       <c r="AT26" s="2">
-        <f>AT24+AT25</f>
-        <v>25176</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G27" s="5">
-        <f>G23-G26</f>
-        <v>1059</v>
+        <f>SUM(G24:G26)</f>
+        <v>6862</v>
       </c>
       <c r="K27" s="5">
-        <f>K23-K26</f>
-        <v>1002</v>
+        <f>SUM(K24:K26)</f>
+        <v>6742</v>
       </c>
       <c r="L27" s="5">
-        <f>L23-L26</f>
-        <v>1914</v>
+        <f>SUM(L24:L26)</f>
+        <v>6974</v>
+      </c>
+      <c r="M27" s="5">
+        <f>+M23-M28</f>
+        <v>6730</v>
       </c>
       <c r="P27" s="5">
-        <f>P23-P26</f>
-        <v>2172</v>
+        <f>SUM(P24:P26)</f>
+        <v>6819</v>
+      </c>
+      <c r="Q27" s="5">
+        <f>+Q23-Q28</f>
+        <v>6547</v>
       </c>
       <c r="AR27" s="2">
-        <f>AR23-AR26</f>
-        <v>4042</v>
+        <f>SUM(AR24:AR26)</f>
+        <v>24314</v>
       </c>
       <c r="AS27" s="2">
-        <f>AS23-AS26</f>
-        <v>6253</v>
+        <f>SUM(AS24:AS26)</f>
+        <v>25865</v>
       </c>
       <c r="AT27" s="2">
-        <f>AT23-AT26</f>
-        <v>7512</v>
+        <f>SUM(AT24:AT26)</f>
+        <v>27842</v>
       </c>
     </row>
     <row r="28" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="5">
+        <f>G23-G27</f>
+        <v>7335</v>
+      </c>
+      <c r="K28" s="5">
+        <f>K23-K27</f>
+        <v>7510</v>
+      </c>
+      <c r="L28" s="5">
+        <f>L23-L27</f>
+        <v>8501</v>
+      </c>
+      <c r="M28" s="5">
+        <v>8023</v>
+      </c>
+      <c r="P28" s="5">
+        <f>P23-P27</f>
+        <v>8950</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>8420</v>
+      </c>
+      <c r="AR28" s="2">
+        <f>AR23-AR27</f>
+        <v>30865</v>
+      </c>
+      <c r="AS28" s="2">
+        <f>AS23-AS27</f>
+        <v>31486</v>
+      </c>
+      <c r="AT28" s="2">
+        <f>AT23-AT27</f>
+        <v>32688</v>
+      </c>
+    </row>
+    <row r="29" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="5">
+        <v>4597</v>
+      </c>
+      <c r="K29" s="5">
+        <v>4853</v>
+      </c>
+      <c r="L29" s="5">
+        <v>4900</v>
+      </c>
+      <c r="M29" s="5">
+        <v>4458</v>
+      </c>
+      <c r="P29" s="2">
+        <v>4938</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>4911</v>
+      </c>
+      <c r="AR29" s="2">
+        <v>20561</v>
+      </c>
+      <c r="AS29" s="2">
+        <v>18745</v>
+      </c>
+      <c r="AT29" s="2">
+        <v>18609</v>
+      </c>
+    </row>
+    <row r="30" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1679</v>
+      </c>
+      <c r="K30" s="5">
+        <v>1655</v>
+      </c>
+      <c r="L30" s="5">
+        <v>1687</v>
+      </c>
+      <c r="M30" s="5">
+        <v>1685</v>
+      </c>
+      <c r="P30" s="2">
+        <v>1840</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>1876</v>
+      </c>
+      <c r="AR30" s="2">
+        <v>6262</v>
+      </c>
+      <c r="AS30" s="2">
+        <v>6488</v>
+      </c>
+      <c r="AT30" s="2">
+        <v>6567</v>
+      </c>
+    </row>
+    <row r="31" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="5">
+        <f>G29+G30</f>
+        <v>6276</v>
+      </c>
+      <c r="K31" s="5">
+        <f>K29+K30</f>
+        <v>6508</v>
+      </c>
+      <c r="L31" s="5">
+        <f>L29+L30</f>
+        <v>6587</v>
+      </c>
+      <c r="M31" s="5">
+        <f>M29+M30</f>
+        <v>6143</v>
+      </c>
+      <c r="P31" s="5">
+        <f>P29+P30</f>
+        <v>6778</v>
+      </c>
+      <c r="Q31" s="5">
+        <f>Q29+Q30</f>
+        <v>6787</v>
+      </c>
+      <c r="AR31" s="2">
+        <f>AR29+AR30</f>
+        <v>26823</v>
+      </c>
+      <c r="AS31" s="2">
+        <f>AS29+AS30</f>
+        <v>25233</v>
+      </c>
+      <c r="AT31" s="2">
+        <f>AT29+AT30</f>
+        <v>25176</v>
+      </c>
+    </row>
+    <row r="32" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="5">
+        <f>G28-G31</f>
+        <v>1059</v>
+      </c>
+      <c r="K32" s="5">
+        <f>K28-K31</f>
+        <v>1002</v>
+      </c>
+      <c r="L32" s="5">
+        <f>L28-L31</f>
+        <v>1914</v>
+      </c>
+      <c r="M32" s="5">
+        <f>M28-M31</f>
+        <v>1880</v>
+      </c>
+      <c r="P32" s="5">
+        <f>P28-P31</f>
+        <v>2172</v>
+      </c>
+      <c r="Q32" s="5">
+        <f>Q28-Q31</f>
+        <v>1633</v>
+      </c>
+      <c r="AR32" s="2">
+        <f>AR28-AR31</f>
+        <v>4042</v>
+      </c>
+      <c r="AS32" s="2">
+        <f>AS28-AS31</f>
+        <v>6253</v>
+      </c>
+      <c r="AT32" s="2">
+        <f>AT28-AT31</f>
+        <v>7512</v>
+      </c>
+    </row>
+    <row r="33" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G33" s="3">
         <f>-246-311+121</f>
         <v>-436</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K33" s="3">
         <f>245-367+180</f>
         <v>58</v>
       </c>
-      <c r="L28">
+      <c r="L33">
         <f>248+261-423</f>
         <v>86</v>
       </c>
-      <c r="P28">
+      <c r="M33" s="5">
+        <v>-412</v>
+      </c>
+      <c r="P33">
         <f>241+233-427</f>
         <v>47</v>
       </c>
-      <c r="AR28">
+      <c r="Q33" s="5">
+        <v>-429</v>
+      </c>
+      <c r="AR33">
         <f>620-1288</f>
         <v>-668</v>
       </c>
-      <c r="AS28">
+      <c r="AS33">
         <f>612-1155</f>
         <v>-543</v>
       </c>
-      <c r="AT28">
+      <c r="AT33">
         <f>663-1216</f>
         <v>-553</v>
       </c>
     </row>
-    <row r="29" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
+    <row r="34" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="5">
-        <f>G27+G28</f>
+      <c r="G34" s="5">
+        <f>G32+G33</f>
         <v>623</v>
       </c>
-      <c r="K29" s="5">
-        <f>K27+K28</f>
+      <c r="K34" s="5">
+        <f>K32+K33</f>
         <v>1060</v>
       </c>
-      <c r="L29" s="5">
-        <f>L27+L28</f>
+      <c r="L34" s="5">
+        <f>L32+L33</f>
         <v>2000</v>
       </c>
-      <c r="P29" s="5">
-        <f>P27+P28</f>
+      <c r="M34" s="5">
+        <f>M32+M33</f>
+        <v>1468</v>
+      </c>
+      <c r="P34" s="5">
+        <f>P32+P33</f>
         <v>2219</v>
       </c>
-      <c r="AR29" s="2">
-        <f>AR27+AR28</f>
+      <c r="Q34" s="5">
+        <f>Q32+Q33</f>
+        <v>1204</v>
+      </c>
+      <c r="AR34" s="2">
+        <f>AR32+AR33</f>
         <v>3374</v>
       </c>
-      <c r="AS29" s="2">
-        <f>AS27+AS28</f>
+      <c r="AS34" s="2">
+        <f>AS32+AS33</f>
         <v>5710</v>
       </c>
-      <c r="AT29" s="2">
-        <f>AT27+AT28</f>
+      <c r="AT34" s="2">
+        <f>AT32+AT33</f>
         <v>6959</v>
       </c>
     </row>
-    <row r="30" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
+    <row r="35" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G35" s="3">
         <f>-39-71</f>
         <v>-110</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K35" s="3">
         <f>124+7</f>
         <v>131</v>
       </c>
-      <c r="L30">
+      <c r="L35">
         <v>419</v>
       </c>
-      <c r="P30">
+      <c r="M35">
+        <v>159</v>
+      </c>
+      <c r="P35">
         <v>389</v>
       </c>
-      <c r="AR30">
+      <c r="Q35">
         <v>0</v>
       </c>
-      <c r="AS30">
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
         <v>124</v>
       </c>
-      <c r="AT30">
+      <c r="AT35">
         <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="5">
-        <f>G29-G30</f>
-        <v>733</v>
-      </c>
-      <c r="K31" s="5">
-        <f>K29-K30</f>
-        <v>929</v>
-      </c>
-      <c r="L31" s="2">
-        <f>+L29-L30</f>
-        <v>1581</v>
-      </c>
-      <c r="P31" s="2">
-        <f>+P29-P30</f>
-        <v>1830</v>
-      </c>
-      <c r="AR31" s="2">
-        <f>AR29-AR30</f>
-        <v>3374</v>
-      </c>
-      <c r="AS31" s="2">
-        <f>AS29-AS30</f>
-        <v>5586</v>
-      </c>
-      <c r="AT31" s="2">
-        <f>AT29-AT30</f>
-        <v>6959</v>
-      </c>
-    </row>
-    <row r="32" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" s="8">
-        <f>G31/G33</f>
-        <v>0.81507839430668305</v>
-      </c>
-      <c r="K32" s="8">
-        <f>K31/K33</f>
-        <v>1.0236914600550964</v>
-      </c>
-      <c r="L32" s="8">
-        <f>L31/L33</f>
-        <v>1.7375535773161885</v>
-      </c>
-      <c r="P32" s="8">
-        <f>P31/P33</f>
-        <v>1.9884820167336739</v>
-      </c>
-      <c r="AR32" s="1">
-        <f>AR31/AR33</f>
-        <v>3.7895294873465208</v>
-      </c>
-      <c r="AS32" s="1">
-        <f>AS31/AS33</f>
-        <v>6.2344445808546967</v>
-      </c>
-      <c r="AT32" s="1">
-        <f>AT31/AT33</f>
-        <v>7.7094023911444349</v>
-      </c>
-    </row>
-    <row r="33" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5">
-        <v>899.3</v>
-      </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5">
-        <v>907.5</v>
-      </c>
-      <c r="L33" s="5">
-        <v>909.9</v>
-      </c>
-      <c r="P33" s="5">
-        <v>920.3</v>
-      </c>
-      <c r="AR33" s="2">
-        <v>890.34799999999996</v>
-      </c>
-      <c r="AS33" s="2">
-        <v>895.99</v>
-      </c>
-      <c r="AT33" s="2">
-        <v>902.66399999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K35" s="9">
-        <f>K18/G18-1</f>
-        <v>3.8740578995561936E-3</v>
-      </c>
-      <c r="L35" s="9" t="e">
-        <f>L18/H18-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P35" s="9">
-        <f>P18/L18-1</f>
-        <v>1.8998384491114795E-2</v>
-      </c>
-      <c r="AS35" s="10">
-        <f>AS18/AR18-1</f>
-        <v>3.9362801065622843E-2</v>
-      </c>
-      <c r="AT35" s="10">
-        <f>AT18/AS18-1</f>
-        <v>5.5430594061132377E-2</v>
       </c>
     </row>
     <row r="36" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="9">
-        <f>G23/G18</f>
-        <v>0.51665844896809188</v>
-      </c>
-      <c r="K36" s="9">
-        <f>K23/K18</f>
-        <v>0.52694358686500142</v>
-      </c>
-      <c r="L36" s="9">
-        <f>L23/L18</f>
-        <v>0.54933764135702745</v>
-      </c>
-      <c r="P36" s="9">
-        <f>P23/P18</f>
-        <v>0.56756928150168051</v>
-      </c>
-      <c r="AR36" s="10">
-        <f>AR23/AR18</f>
-        <v>0.5593613512386959</v>
-      </c>
-      <c r="AS36" s="10">
-        <f>AS23/AS18</f>
-        <v>0.54900524838276576</v>
-      </c>
-      <c r="AT36" s="10">
-        <f>AT23/AT18</f>
-        <v>0.54002973732033699</v>
+        <v>34</v>
+      </c>
+      <c r="G36" s="5">
+        <f>G34-G35</f>
+        <v>733</v>
+      </c>
+      <c r="K36" s="5">
+        <f>K34-K35</f>
+        <v>929</v>
+      </c>
+      <c r="L36" s="2">
+        <f>+L34-L35</f>
+        <v>1581</v>
+      </c>
+      <c r="M36" s="2">
+        <f>+M34-M35</f>
+        <v>1309</v>
+      </c>
+      <c r="P36" s="2">
+        <f>+P34-P35</f>
+        <v>1830</v>
+      </c>
+      <c r="Q36" s="2">
+        <f>+Q34-Q35</f>
+        <v>1204</v>
+      </c>
+      <c r="AR36" s="2">
+        <f>AR34-AR35</f>
+        <v>3374</v>
+      </c>
+      <c r="AS36" s="2">
+        <f>AS34-AS35</f>
+        <v>5586</v>
+      </c>
+      <c r="AT36" s="2">
+        <f>AT34-AT35</f>
+        <v>6959</v>
+      </c>
+    </row>
+    <row r="37" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="8">
+        <f>G36/G38</f>
+        <v>0.81507839430668305</v>
+      </c>
+      <c r="K37" s="8">
+        <f>K36/K38</f>
+        <v>1.0236914600550964</v>
+      </c>
+      <c r="L37" s="8">
+        <f>L36/L38</f>
+        <v>1.7375535773161885</v>
+      </c>
+      <c r="M37" s="8">
+        <f>M36/M38</f>
+        <v>1.4340490797546013</v>
+      </c>
+      <c r="P37" s="8">
+        <f>P36/P38</f>
+        <v>1.9884820167336739</v>
+      </c>
+      <c r="Q37" s="8">
+        <f>Q36/Q38</f>
+        <v>1.3035946297098311</v>
+      </c>
+      <c r="AR37" s="1">
+        <f>AR36/AR38</f>
+        <v>3.7895294873465208</v>
+      </c>
+      <c r="AS37" s="1">
+        <f>AS36/AS38</f>
+        <v>6.2344445808546967</v>
+      </c>
+      <c r="AT37" s="1">
+        <f>AT36/AT38</f>
+        <v>7.7094023911444349</v>
       </c>
     </row>
     <row r="38" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5">
+        <v>899.3</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5">
+        <v>907.5</v>
+      </c>
+      <c r="L38" s="5">
+        <v>909.9</v>
+      </c>
+      <c r="M38" s="5">
+        <v>912.8</v>
+      </c>
+      <c r="P38" s="5">
+        <v>920.3</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>923.6</v>
+      </c>
+      <c r="AR38" s="2">
+        <v>890.34799999999996</v>
+      </c>
+      <c r="AS38" s="2">
+        <v>895.99</v>
+      </c>
+      <c r="AT38" s="2">
+        <v>902.66399999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K40" s="9">
+        <f>K23/G23-1</f>
+        <v>3.8740578995561936E-3</v>
+      </c>
+      <c r="L40" s="9" t="e">
+        <f>L23/H23-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P40" s="9">
+        <f>P23/L23-1</f>
+        <v>1.8998384491114795E-2</v>
+      </c>
+      <c r="AS40" s="10">
+        <f>AS23/AR23-1</f>
+        <v>3.9362801065622843E-2</v>
+      </c>
+      <c r="AT40" s="10">
+        <f>AT23/AS23-1</f>
+        <v>5.5430594061132377E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="9">
+        <f>G28/G23</f>
+        <v>0.51665844896809188</v>
+      </c>
+      <c r="K41" s="9">
+        <f>K28/K23</f>
+        <v>0.52694358686500142</v>
+      </c>
+      <c r="L41" s="9">
+        <f>L28/L23</f>
+        <v>0.54933764135702745</v>
+      </c>
+      <c r="P41" s="9">
+        <f>P28/P23</f>
+        <v>0.56756928150168051</v>
+      </c>
+      <c r="AR41" s="10">
+        <f>AR28/AR23</f>
+        <v>0.5593613512386959</v>
+      </c>
+      <c r="AS41" s="10">
+        <f>AS28/AS23</f>
+        <v>0.54900524838276576</v>
+      </c>
+      <c r="AT41" s="10">
+        <f>AT28/AT23</f>
+        <v>0.54002973732033699</v>
+      </c>
+    </row>
+    <row r="43" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P38" s="2">
-        <f>+P39-P53</f>
+      <c r="P43" s="2">
+        <f>+P44-P58</f>
         <v>-38732</v>
       </c>
     </row>
-    <row r="39" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
+    <row r="44" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P39" s="2">
+      <c r="P44" s="2">
         <f>12210+2268+1481+1840</f>
         <v>17799</v>
       </c>
     </row>
-    <row r="40" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
+    <row r="45" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P40" s="2">
+      <c r="P45" s="2">
         <f>5769+757</f>
         <v>6526</v>
       </c>
     </row>
-    <row r="41" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
+    <row r="46" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P41" s="2">
+      <c r="P46" s="2">
         <f>5075+723+5483</f>
         <v>11281</v>
       </c>
     </row>
-    <row r="42" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
+    <row r="47" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P42" s="2">
+      <c r="P47" s="2">
         <v>1234</v>
       </c>
     </row>
-    <row r="43" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
+    <row r="48" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P43" s="2">
+      <c r="P48" s="2">
         <f>997+820</f>
         <v>1817</v>
       </c>
     </row>
-    <row r="44" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P44" s="2">
-        <v>2784</v>
-      </c>
-    </row>
-    <row r="45" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="P45" s="2">
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="46" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B46" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P46" s="2">
-        <v>3130</v>
-      </c>
-    </row>
-    <row r="47" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P47" s="2">
-        <v>7630</v>
-      </c>
-    </row>
-    <row r="48" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P48" s="2">
-        <v>6378</v>
-      </c>
-    </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P49" s="2">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P50" s="2">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="2">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P52" s="2">
+        <v>7630</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P53" s="2">
+        <v>6378</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P49" s="2">
+      <c r="P54" s="2">
         <f>59416+10251</f>
         <v>69667</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B50" s="2" t="s">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P50" s="2">
-        <f>SUM(P39:P49)</f>
+      <c r="P55" s="2">
+        <f>SUM(P44:P54)</f>
         <v>133846</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B51" s="2"/>
-      <c r="P51" s="2"/>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B52" s="2" t="s">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B56" s="2"/>
+      <c r="P56" s="2"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P52" s="2">
+      <c r="P57" s="2">
         <v>1691</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B53" s="2" t="s">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="P53" s="2">
+      <c r="P58" s="2">
         <f>3602+52929</f>
         <v>56531</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B54" s="2" t="s">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P54" s="2">
+      <c r="P59" s="2">
         <v>3631</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B55" s="2" t="s">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P55" s="2">
+      <c r="P60" s="2">
         <v>3125</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B56" s="2" t="s">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P56" s="2">
+      <c r="P61" s="2">
         <f>13643+3489</f>
         <v>17132</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B57" s="2" t="s">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="P57" s="2">
+      <c r="P62" s="2">
         <f>762+2546</f>
         <v>3308</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B58" s="2" t="s">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P58" s="2">
+      <c r="P63" s="2">
         <v>3195</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B59" s="2" t="s">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P59" s="2">
+      <c r="P64" s="2">
         <v>10200</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B60" s="2" t="s">
+    <row r="65" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P60" s="2">
+      <c r="P65" s="2">
         <v>10932</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B61" s="2" t="s">
+    <row r="66" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P61" s="2">
+      <c r="P66" s="2">
         <v>24103</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B62" s="2" t="s">
+    <row r="67" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P62" s="2">
-        <f>SUM(P52:P61)</f>
+      <c r="P67" s="2">
+        <f>SUM(P57:P66)</f>
         <v>133848</v>
       </c>
     </row>
-    <row r="71" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B71" s="2" t="s">
+    <row r="76" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G76" s="5">
         <v>3248</v>
       </c>
-      <c r="K71" s="5">
+      <c r="K76" s="5">
         <v>3774</v>
       </c>
-      <c r="AR71" s="2">
+      <c r="AR76" s="2">
         <v>18197</v>
       </c>
-      <c r="AS71" s="2">
+      <c r="AS76" s="2">
         <v>12796</v>
       </c>
-      <c r="AT71" s="2">
+      <c r="AT76" s="2">
         <v>10435</v>
       </c>
     </row>
-    <row r="72" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B72" s="2" t="s">
+    <row r="77" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G77" s="5">
         <v>281</v>
       </c>
-      <c r="K72" s="5">
+      <c r="K77" s="5">
         <v>300</v>
       </c>
-      <c r="AR72" s="2">
+      <c r="AR77" s="2">
         <v>2618</v>
       </c>
-      <c r="AS72" s="2">
+      <c r="AS77" s="2">
         <v>2062</v>
       </c>
-      <c r="AT72" s="2">
+      <c r="AT77" s="2">
         <v>1346</v>
       </c>
     </row>
-    <row r="73" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B73" s="2" t="s">
+    <row r="78" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G73" s="5">
-        <f>G71-G72</f>
+      <c r="G78" s="5">
+        <f>G76-G77</f>
         <v>2967</v>
       </c>
-      <c r="K73" s="5">
-        <f>K71-K72</f>
+      <c r="K78" s="5">
+        <f>K76-K77</f>
         <v>3474</v>
       </c>
-      <c r="AR73" s="2">
-        <f>AR71-AR72</f>
+      <c r="AR78" s="2">
+        <f>AR76-AR77</f>
         <v>15579</v>
       </c>
-      <c r="AS73" s="2">
-        <f>AS71-AS72</f>
+      <c r="AS78" s="2">
+        <f>AS76-AS77</f>
         <v>10734</v>
       </c>
-      <c r="AT73" s="2">
-        <f>AT71-AT72</f>
+      <c r="AT78" s="2">
+        <f>AT76-AT77</f>
         <v>9089</v>
       </c>
     </row>
